--- a/Documents de design/Chose a faire.xlsx
+++ b/Documents de design/Chose a faire.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World is yours\Documents de design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Personnage :</t>
   </si>
@@ -114,13 +114,29 @@
   </si>
   <si>
     <t>Le joueur s'imprène de fer, ce qui l'alourdit, le fait taper plus fort et est attiré par les aimants</t>
+  </si>
+  <si>
+    <t>Les ennemis peuvent attaquer le joueur</t>
+  </si>
+  <si>
+    <t>Déplacement</t>
+  </si>
+  <si>
+    <t>Les ennemis se déplace vers le joueur dès qu'ils le voie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,141 +481,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="136.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="136.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documents de design/Chose a faire.xlsx
+++ b/Documents de design/Chose a faire.xlsx
@@ -129,10 +129,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,12 +159,34 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,15 +198,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,7 +529,7 @@
   <dimension ref="A3:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,50 +545,50 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -554,10 +598,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -567,50 +611,50 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -620,18 +664,18 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Documents de design/Chose a faire.xlsx
+++ b/Documents de design/Chose a faire.xlsx
@@ -74,9 +74,6 @@
     <t>Camera suivant le joueur</t>
   </si>
   <si>
-    <t>La caméra suit toujours le joueur</t>
-  </si>
-  <si>
     <t>Le joueur gagne de l'expérience en tuant des monstres tout X exp il gagne un niveau qui lui donne +X atk, Tout les X niveau il gagne un cœur</t>
   </si>
   <si>
@@ -123,13 +120,16 @@
   </si>
   <si>
     <t>Les ennemis se déplace vers le joueur dès qu'ils le voie</t>
+  </si>
+  <si>
+    <t>La caméra suit toujours le joueur (joueur au centre)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,9 +220,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -529,7 +543,7 @@
   <dimension ref="A3:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,11 +612,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,51 +625,51 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,15 +682,15 @@
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documents de design/Chose a faire.xlsx
+++ b/Documents de design/Chose a faire.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Personnage :</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>La caméra suit toujours le joueur (joueur au centre)</t>
+  </si>
+  <si>
+    <t>Dans le monde de Word, Alex cherche à déjouer les plans de Calagas, le Roi Sorcier, en utilisant le sens des mots</t>
   </si>
 </sst>
 </file>
@@ -540,17 +543,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B31"/>
+  <dimension ref="A3:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="136.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,6 +697,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents de design/Chose a faire.xlsx
+++ b/Documents de design/Chose a faire.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Personnage :</t>
   </si>
@@ -126,13 +127,37 @@
   </si>
   <si>
     <t>Dans le monde de Word, Alex cherche à déjouer les plans de Calagas, le Roi Sorcier, en utilisant le sens des mots</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Cherche</t>
+  </si>
+  <si>
+    <t>Utilisant le sens des mots</t>
+  </si>
+  <si>
+    <t>Combattre</t>
+  </si>
+  <si>
+    <t>Résoudre des énigmes</t>
+  </si>
+  <si>
+    <t>Alex cherche à résoudre des énigmes et combattre en utilisant le sens des mots</t>
+  </si>
+  <si>
+    <t>Alex cherche en utilisant les sens des mots a combattre et résoudre des énigmes</t>
+  </si>
+  <si>
+    <t>Enigme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +196,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,13 +252,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -546,7 +581,7 @@
   <dimension ref="A3:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +598,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -587,26 +622,26 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -616,10 +651,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -629,50 +664,50 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -682,22 +717,27 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
@@ -706,4 +746,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA5DABF-4963-4A0A-B4FB-751A4AFCC9C4}">
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>